--- a/Dialogue.xlsx
+++ b/Dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workshop\Thesis\Dinner-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F89FDD-ADCF-4300-BB6E-2380C831788A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B98A0-3F46-41B1-B3A8-8273E921815F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="308">
   <si>
     <t>Dialogs</t>
   </si>
@@ -878,6 +878,75 @@
   </si>
   <si>
     <t>How's the food?</t>
+  </si>
+  <si>
+    <t>ComplementFood</t>
+  </si>
+  <si>
+    <t>OnTimeStrongPositive</t>
+  </si>
+  <si>
+    <t>OnTimeMildPositive</t>
+  </si>
+  <si>
+    <t>OnTimeNeutral</t>
+  </si>
+  <si>
+    <t>LateMildPositive</t>
+  </si>
+  <si>
+    <t>LateNeutral</t>
+  </si>
+  <si>
+    <t>LateMildNegative</t>
+  </si>
+  <si>
+    <t>LateStrongNegative</t>
+  </si>
+  <si>
+    <t>I got here about on time.</t>
+  </si>
+  <si>
+    <t>Oh, I think I was a little bit late.</t>
+  </si>
+  <si>
+    <t>Oh, of ourse I got here on time! [Smiles]</t>
+  </si>
+  <si>
+    <t>I got here on time. [Smiles]</t>
+  </si>
+  <si>
+    <t>Oh, ha, yeah, I was a little late, but you know me! [Smiles]</t>
+  </si>
+  <si>
+    <t>Yeah, unfortunately I was a bit late.</t>
+  </si>
+  <si>
+    <t>I can't believe I was late!</t>
+  </si>
+  <si>
+    <t>InsultFood</t>
+  </si>
+  <si>
+    <t>Oh, wow! I've never had this before, but it's amazing!</t>
+  </si>
+  <si>
+    <t>Yeah it's really different and unique but I love it!</t>
+  </si>
+  <si>
+    <t>It's definitely different than I was expecting, but really good.</t>
+  </si>
+  <si>
+    <t>It's fine I guess.</t>
+  </si>
+  <si>
+    <t>It's… pretty good. Just not really my thing.</t>
+  </si>
+  <si>
+    <t>It's really different than what I normally eat. I'm not a fan.</t>
+  </si>
+  <si>
+    <t>I hate it! Why did they have to try and make something new?</t>
   </si>
 </sst>
 </file>
@@ -1289,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E567"/>
+  <dimension ref="A1:E580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C567" sqref="C567"/>
+      <pane ySplit="2" topLeftCell="A559" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C584" sqref="C584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10933,8 +11002,235 @@
       <c r="B567" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C567" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="D567" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Dialogue.xlsx
+++ b/Dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Workshop\Thesis\Dinner-Party-FAtiMA-Resources\Dinner-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0DBFFA-7659-407E-A94C-59CFB1D05CFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1041EF7-25D3-4A28-A8BE-BAA7BB0859F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,9 +946,6 @@
     <t>TellInsultArnold</t>
   </si>
   <si>
-    <t>You know Arnold told me they don'tlike you.</t>
-  </si>
-  <si>
     <t>You know Ernest told me they don't like you.</t>
   </si>
   <si>
@@ -974,6 +971,9 @@
   </si>
   <si>
     <t>You know Teri told me they don't like you.</t>
+  </si>
+  <si>
+    <t>You know Arnold told me they don't like you.</t>
   </si>
 </sst>
 </file>
@@ -1385,11 +1385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E580"/>
+  <dimension ref="A1:G580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
+      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3576,7 +3576,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
@@ -3626,8 +3626,9 @@
       <c r="E131" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -3643,8 +3644,9 @@
       <c r="E132" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
@@ -3660,8 +3662,9 @@
       <c r="E133" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -3677,8 +3680,9 @@
       <c r="E134" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>7</v>
       </c>
@@ -3694,8 +3698,9 @@
       <c r="E135" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
         <v>7</v>
       </c>
@@ -3711,8 +3716,9 @@
       <c r="E136" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -3728,8 +3734,9 @@
       <c r="E137" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -3745,8 +3752,9 @@
       <c r="E138" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +3771,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
         <v>7</v>
       </c>
@@ -3797,7 +3805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>7</v>
       </c>
@@ -3814,7 +3822,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
@@ -3831,7 +3839,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>7</v>
       </c>
@@ -4644,7 +4652,7 @@
         <v>20</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4661,7 +4669,7 @@
         <v>25</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4678,7 +4686,7 @@
         <v>27</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4695,7 +4703,7 @@
         <v>29</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4712,7 +4720,7 @@
         <v>31</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4729,7 +4737,7 @@
         <v>33</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4746,7 +4754,7 @@
         <v>35</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4763,7 +4771,7 @@
         <v>37</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4780,7 +4788,7 @@
         <v>39</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4797,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="201" spans="1:5">

--- a/Dialogue.xlsx
+++ b/Dialogue.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Workshop\Thesis\Dinner-Party-FAtiMA-Resources\Dinner-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1041EF7-25D3-4A28-A8BE-BAA7BB0859F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F5E104-9CD3-40E9-B81D-D8D6E1C47D07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dialogs!$A$2:$E$581</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dialogs!$A$2:$E$582</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="319">
   <si>
     <t>Dialogs</t>
   </si>
@@ -974,6 +974,12 @@
   </si>
   <si>
     <t>You know Arnold told me they don't like you.</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>Oh, uh, thanks.</t>
   </si>
 </sst>
 </file>
@@ -1385,11 +1391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G580"/>
+  <dimension ref="A1:G581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
+      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A226" sqref="A226:E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,13 +2298,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2309,13 +2315,13 @@
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2326,13 +2332,13 @@
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2343,30 +2349,30 @@
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2377,13 +2383,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2394,13 +2400,13 @@
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2411,13 +2417,13 @@
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2428,13 +2434,13 @@
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2445,13 +2451,13 @@
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2462,30 +2468,30 @@
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2496,13 +2502,13 @@
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2513,13 +2519,13 @@
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2530,13 +2536,13 @@
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2547,13 +2553,13 @@
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2564,13 +2570,13 @@
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2581,30 +2587,30 @@
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2615,13 +2621,13 @@
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2632,13 +2638,13 @@
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2649,13 +2655,13 @@
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2666,13 +2672,13 @@
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2683,13 +2689,13 @@
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2700,30 +2706,30 @@
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2734,13 +2740,13 @@
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2751,13 +2757,13 @@
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2768,13 +2774,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2785,13 +2791,13 @@
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2802,13 +2808,13 @@
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2819,30 +2825,30 @@
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2853,13 +2859,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2870,13 +2876,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2887,13 +2893,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2904,13 +2910,13 @@
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2921,13 +2927,13 @@
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2938,30 +2944,30 @@
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2972,13 +2978,13 @@
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2989,13 +2995,13 @@
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3006,13 +3012,13 @@
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3023,13 +3029,13 @@
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3040,13 +3046,13 @@
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3057,30 +3063,30 @@
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3091,13 +3097,13 @@
         <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3108,13 +3114,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3125,13 +3131,13 @@
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3142,13 +3148,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3159,13 +3165,13 @@
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3176,30 +3182,30 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3210,13 +3216,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3227,13 +3233,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3244,13 +3250,13 @@
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3261,13 +3267,13 @@
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3278,13 +3284,13 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3295,30 +3301,30 @@
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3329,13 +3335,13 @@
         <v>7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3346,13 +3352,13 @@
         <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3363,13 +3369,13 @@
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3380,13 +3386,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3397,13 +3403,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3414,30 +3420,30 @@
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3448,13 +3454,13 @@
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3465,13 +3471,13 @@
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3482,13 +3488,13 @@
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3499,13 +3505,13 @@
         <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3516,13 +3522,13 @@
         <v>7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3533,30 +3539,30 @@
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3564,7 +3570,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>71</v>
@@ -3573,7 +3579,7 @@
         <v>9</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3581,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>6</v>
+        <v>281</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>71</v>
@@ -3590,7 +3596,7 @@
         <v>9</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3598,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>71</v>
@@ -3607,7 +3613,7 @@
         <v>9</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3615,34 +3621,33 @@
         <v>7</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G132" s="1"/>
     </row>
@@ -3651,16 +3656,16 @@
         <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G133" s="1"/>
     </row>
@@ -3669,16 +3674,16 @@
         <v>7</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G134" s="1"/>
     </row>
@@ -3687,16 +3692,16 @@
         <v>7</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G135" s="1"/>
     </row>
@@ -3705,16 +3710,16 @@
         <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G136" s="1"/>
     </row>
@@ -3723,16 +3728,16 @@
         <v>7</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G137" s="1"/>
     </row>
@@ -3741,16 +3746,16 @@
         <v>7</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G138" s="1"/>
     </row>
@@ -3759,33 +3764,34 @@
         <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3793,16 +3799,16 @@
         <v>7</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3819,7 +3825,7 @@
         <v>9</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3836,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3853,7 +3859,7 @@
         <v>9</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3870,7 +3876,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3878,16 +3884,16 @@
         <v>7</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3895,16 +3901,16 @@
         <v>7</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3912,16 +3918,16 @@
         <v>7</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3929,16 +3935,16 @@
         <v>7</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3946,16 +3952,16 @@
         <v>7</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3963,16 +3969,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3980,16 +3986,16 @@
         <v>7</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3997,16 +4003,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4014,16 +4020,16 @@
         <v>7</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4031,16 +4037,16 @@
         <v>7</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4048,16 +4054,16 @@
         <v>7</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4074,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4091,7 +4097,7 @@
         <v>9</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4099,16 +4105,16 @@
         <v>7</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4116,16 +4122,16 @@
         <v>7</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4133,16 +4139,16 @@
         <v>7</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4150,16 +4156,16 @@
         <v>7</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4167,16 +4173,16 @@
         <v>7</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4184,16 +4190,16 @@
         <v>7</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4201,16 +4207,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4218,16 +4224,16 @@
         <v>7</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4235,16 +4241,16 @@
         <v>7</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4252,16 +4258,16 @@
         <v>7</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4269,16 +4275,16 @@
         <v>7</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4286,16 +4292,16 @@
         <v>7</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4303,16 +4309,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4320,16 +4326,16 @@
         <v>7</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4337,16 +4343,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4354,16 +4360,16 @@
         <v>7</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4371,16 +4377,16 @@
         <v>7</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4388,16 +4394,16 @@
         <v>7</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4405,16 +4411,16 @@
         <v>7</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4422,16 +4428,16 @@
         <v>7</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4439,16 +4445,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4456,16 +4462,16 @@
         <v>7</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4473,16 +4479,16 @@
         <v>7</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4490,16 +4496,16 @@
         <v>7</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4507,16 +4513,16 @@
         <v>7</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4524,16 +4530,16 @@
         <v>7</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4541,16 +4547,16 @@
         <v>7</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4558,16 +4564,16 @@
         <v>7</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4575,16 +4581,16 @@
         <v>7</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4592,16 +4598,16 @@
         <v>7</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4609,16 +4615,16 @@
         <v>7</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4626,16 +4632,16 @@
         <v>7</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4643,16 +4649,16 @@
         <v>7</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>316</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4660,16 +4666,16 @@
         <v>7</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4677,16 +4683,16 @@
         <v>7</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4694,16 +4700,16 @@
         <v>7</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4711,16 +4717,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4728,16 +4734,16 @@
         <v>7</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4745,16 +4751,16 @@
         <v>7</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4762,16 +4768,16 @@
         <v>7</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4779,16 +4785,16 @@
         <v>7</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4796,16 +4802,16 @@
         <v>7</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4813,16 +4819,16 @@
         <v>7</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>182</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4830,16 +4836,16 @@
         <v>7</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4847,16 +4853,16 @@
         <v>7</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4864,16 +4870,16 @@
         <v>7</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4881,16 +4887,16 @@
         <v>7</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4898,16 +4904,16 @@
         <v>7</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4915,16 +4921,16 @@
         <v>7</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4932,16 +4938,16 @@
         <v>7</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4949,16 +4955,16 @@
         <v>7</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4966,16 +4972,16 @@
         <v>7</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>150</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4983,16 +4989,16 @@
         <v>7</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5000,16 +5006,16 @@
         <v>7</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5017,16 +5023,16 @@
         <v>7</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5034,16 +5040,16 @@
         <v>7</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5051,16 +5057,16 @@
         <v>7</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5068,16 +5074,16 @@
         <v>7</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5085,16 +5091,16 @@
         <v>7</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5102,16 +5108,16 @@
         <v>7</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5119,16 +5125,16 @@
         <v>7</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5136,50 +5142,50 @@
         <v>7</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5190,13 +5196,13 @@
         <v>7</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5207,13 +5213,13 @@
         <v>7</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5224,30 +5230,30 @@
         <v>7</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5258,13 +5264,13 @@
         <v>7</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5275,13 +5281,13 @@
         <v>7</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5292,13 +5298,13 @@
         <v>7</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5309,13 +5315,13 @@
         <v>7</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5326,13 +5332,13 @@
         <v>7</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5343,30 +5349,30 @@
         <v>7</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5377,13 +5383,13 @@
         <v>7</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5394,13 +5400,13 @@
         <v>7</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5411,13 +5417,13 @@
         <v>7</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5428,13 +5434,13 @@
         <v>7</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5445,13 +5451,13 @@
         <v>7</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5462,30 +5468,30 @@
         <v>7</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5496,13 +5502,13 @@
         <v>7</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5513,13 +5519,13 @@
         <v>7</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5530,13 +5536,13 @@
         <v>7</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5547,13 +5553,13 @@
         <v>7</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5564,13 +5570,13 @@
         <v>7</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5581,30 +5587,30 @@
         <v>7</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5615,13 +5621,13 @@
         <v>7</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5632,13 +5638,13 @@
         <v>7</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5649,13 +5655,13 @@
         <v>7</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5666,13 +5672,13 @@
         <v>7</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5683,13 +5689,13 @@
         <v>7</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5700,30 +5706,30 @@
         <v>7</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5734,13 +5740,13 @@
         <v>7</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5751,13 +5757,13 @@
         <v>7</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5768,13 +5774,13 @@
         <v>7</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5785,13 +5791,13 @@
         <v>7</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5802,13 +5808,13 @@
         <v>7</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5819,30 +5825,30 @@
         <v>7</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5853,13 +5859,13 @@
         <v>7</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5870,13 +5876,13 @@
         <v>7</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5887,13 +5893,13 @@
         <v>7</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5904,13 +5910,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5921,13 +5927,13 @@
         <v>7</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5938,30 +5944,30 @@
         <v>7</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5972,13 +5978,13 @@
         <v>7</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5989,13 +5995,13 @@
         <v>7</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6006,13 +6012,13 @@
         <v>7</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6023,13 +6029,13 @@
         <v>7</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6040,13 +6046,13 @@
         <v>7</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6057,30 +6063,30 @@
         <v>7</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6091,13 +6097,13 @@
         <v>7</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6108,13 +6114,13 @@
         <v>7</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6125,13 +6131,13 @@
         <v>7</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6142,13 +6148,13 @@
         <v>7</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6159,13 +6165,13 @@
         <v>7</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6176,30 +6182,30 @@
         <v>7</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6210,13 +6216,13 @@
         <v>7</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6227,13 +6233,13 @@
         <v>7</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6244,13 +6250,13 @@
         <v>7</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6261,13 +6267,13 @@
         <v>7</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6278,13 +6284,13 @@
         <v>7</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6295,30 +6301,30 @@
         <v>7</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6329,13 +6335,13 @@
         <v>7</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6346,13 +6352,13 @@
         <v>7</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6363,13 +6369,13 @@
         <v>7</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6380,13 +6386,13 @@
         <v>7</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6397,13 +6403,13 @@
         <v>7</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6414,30 +6420,30 @@
         <v>7</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6448,13 +6454,13 @@
         <v>7</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6465,13 +6471,13 @@
         <v>7</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6482,30 +6488,30 @@
         <v>7</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6516,13 +6522,13 @@
         <v>7</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6533,13 +6539,13 @@
         <v>7</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6550,13 +6556,13 @@
         <v>7</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6567,13 +6573,13 @@
         <v>7</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6584,13 +6590,13 @@
         <v>7</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6601,30 +6607,30 @@
         <v>7</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6635,13 +6641,13 @@
         <v>7</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6652,13 +6658,13 @@
         <v>7</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6669,13 +6675,13 @@
         <v>7</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6686,13 +6692,13 @@
         <v>7</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6703,13 +6709,13 @@
         <v>7</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6720,30 +6726,30 @@
         <v>7</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6754,13 +6760,13 @@
         <v>7</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6771,13 +6777,13 @@
         <v>7</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6788,13 +6794,13 @@
         <v>7</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6805,13 +6811,13 @@
         <v>7</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6822,13 +6828,13 @@
         <v>7</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6839,30 +6845,30 @@
         <v>7</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6873,13 +6879,13 @@
         <v>7</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6890,13 +6896,13 @@
         <v>7</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6907,13 +6913,13 @@
         <v>7</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6924,13 +6930,13 @@
         <v>7</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6941,13 +6947,13 @@
         <v>7</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6958,30 +6964,30 @@
         <v>7</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6992,13 +6998,13 @@
         <v>7</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7009,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7026,13 +7032,13 @@
         <v>7</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7043,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7060,13 +7066,13 @@
         <v>7</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7077,30 +7083,30 @@
         <v>7</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7111,13 +7117,13 @@
         <v>7</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7128,13 +7134,13 @@
         <v>7</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7145,13 +7151,13 @@
         <v>7</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7162,13 +7168,13 @@
         <v>7</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7179,13 +7185,13 @@
         <v>7</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7196,30 +7202,30 @@
         <v>7</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7230,13 +7236,13 @@
         <v>7</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7247,13 +7253,13 @@
         <v>7</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7264,13 +7270,13 @@
         <v>7</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7281,13 +7287,13 @@
         <v>7</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7298,13 +7304,13 @@
         <v>7</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7315,30 +7321,30 @@
         <v>7</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7349,13 +7355,13 @@
         <v>7</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7366,13 +7372,13 @@
         <v>7</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7383,13 +7389,13 @@
         <v>7</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7400,13 +7406,13 @@
         <v>7</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7417,13 +7423,13 @@
         <v>7</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7434,30 +7440,30 @@
         <v>7</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7468,13 +7474,13 @@
         <v>7</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7485,13 +7491,13 @@
         <v>7</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7502,13 +7508,13 @@
         <v>7</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7519,13 +7525,13 @@
         <v>7</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7536,13 +7542,13 @@
         <v>7</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7553,30 +7559,30 @@
         <v>7</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7587,13 +7593,13 @@
         <v>7</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7604,13 +7610,13 @@
         <v>7</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7621,13 +7627,13 @@
         <v>7</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7638,13 +7644,13 @@
         <v>7</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7655,13 +7661,13 @@
         <v>7</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7672,30 +7678,30 @@
         <v>7</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="1" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7706,13 +7712,13 @@
         <v>7</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7723,13 +7729,13 @@
         <v>7</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7740,13 +7746,13 @@
         <v>7</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7768,19 +7774,19 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="1" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7791,13 +7797,13 @@
         <v>7</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7808,13 +7814,13 @@
         <v>7</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7825,13 +7831,13 @@
         <v>7</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7842,13 +7848,13 @@
         <v>7</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7859,30 +7865,30 @@
         <v>7</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -7893,13 +7899,13 @@
         <v>7</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -7910,13 +7916,13 @@
         <v>7</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -7927,13 +7933,13 @@
         <v>7</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7944,30 +7950,30 @@
         <v>7</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7978,13 +7984,13 @@
         <v>7</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7995,13 +8001,13 @@
         <v>7</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8012,13 +8018,13 @@
         <v>7</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8029,30 +8035,30 @@
         <v>7</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8063,13 +8069,13 @@
         <v>7</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8080,13 +8086,13 @@
         <v>7</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -8097,13 +8103,13 @@
         <v>7</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -8114,30 +8120,30 @@
         <v>7</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -8148,13 +8154,13 @@
         <v>7</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -8165,13 +8171,13 @@
         <v>7</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -8182,13 +8188,13 @@
         <v>7</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -8199,30 +8205,30 @@
         <v>7</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -8233,13 +8239,13 @@
         <v>7</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -8250,13 +8256,13 @@
         <v>7</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -8267,13 +8273,13 @@
         <v>7</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -8284,30 +8290,30 @@
         <v>7</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -8318,13 +8324,13 @@
         <v>7</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -8335,13 +8341,13 @@
         <v>7</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -8352,13 +8358,13 @@
         <v>7</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -8369,30 +8375,30 @@
         <v>7</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -8403,13 +8409,13 @@
         <v>7</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -8420,13 +8426,13 @@
         <v>7</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -8437,13 +8443,13 @@
         <v>7</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -8454,30 +8460,30 @@
         <v>7</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -8488,13 +8494,13 @@
         <v>7</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -8505,13 +8511,13 @@
         <v>7</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -8522,13 +8528,13 @@
         <v>7</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -8539,30 +8545,30 @@
         <v>7</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -8573,13 +8579,13 @@
         <v>7</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -8590,13 +8596,13 @@
         <v>7</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -8607,13 +8613,13 @@
         <v>7</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -8624,30 +8630,30 @@
         <v>7</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -8658,13 +8664,13 @@
         <v>7</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -8675,13 +8681,13 @@
         <v>7</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -8692,13 +8698,13 @@
         <v>7</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -8709,30 +8715,30 @@
         <v>7</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -8743,13 +8749,13 @@
         <v>7</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -8760,13 +8766,13 @@
         <v>7</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -8777,13 +8783,13 @@
         <v>7</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -8794,30 +8800,30 @@
         <v>7</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -8828,13 +8834,13 @@
         <v>7</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -8845,13 +8851,13 @@
         <v>7</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -8862,13 +8868,13 @@
         <v>7</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -8879,30 +8885,30 @@
         <v>7</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="1" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -8913,13 +8919,13 @@
         <v>7</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -8930,13 +8936,13 @@
         <v>7</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -8947,13 +8953,13 @@
         <v>7</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -8964,30 +8970,30 @@
         <v>7</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="1" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -8998,13 +9004,13 @@
         <v>7</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -9015,13 +9021,13 @@
         <v>7</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -9032,13 +9038,13 @@
         <v>7</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -9049,30 +9055,30 @@
         <v>7</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -9083,13 +9089,13 @@
         <v>7</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -9100,13 +9106,13 @@
         <v>7</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -9117,13 +9123,13 @@
         <v>7</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -9134,30 +9140,30 @@
         <v>7</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -9168,13 +9174,13 @@
         <v>7</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -9185,13 +9191,13 @@
         <v>7</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -9202,13 +9208,13 @@
         <v>7</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -9219,30 +9225,30 @@
         <v>7</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -9253,13 +9259,13 @@
         <v>7</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -9270,13 +9276,13 @@
         <v>7</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -9287,13 +9293,13 @@
         <v>7</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -9304,30 +9310,30 @@
         <v>7</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -9338,13 +9344,13 @@
         <v>7</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -9355,13 +9361,13 @@
         <v>7</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -9372,13 +9378,13 @@
         <v>7</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -9389,30 +9395,30 @@
         <v>7</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -9423,13 +9429,13 @@
         <v>7</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -9440,13 +9446,13 @@
         <v>7</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -9457,13 +9463,13 @@
         <v>7</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -9474,30 +9480,30 @@
         <v>7</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -9508,13 +9514,13 @@
         <v>7</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -9525,13 +9531,13 @@
         <v>7</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -9542,13 +9548,13 @@
         <v>7</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -9559,30 +9565,30 @@
         <v>7</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -9593,13 +9599,13 @@
         <v>7</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -9610,13 +9616,13 @@
         <v>7</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -9627,13 +9633,13 @@
         <v>7</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -9644,30 +9650,30 @@
         <v>7</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -9678,13 +9684,13 @@
         <v>7</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -9695,13 +9701,13 @@
         <v>7</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -9712,13 +9718,13 @@
         <v>7</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -9729,30 +9735,30 @@
         <v>7</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="1" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -9763,13 +9769,13 @@
         <v>7</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -9780,13 +9786,13 @@
         <v>7</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -9797,13 +9803,13 @@
         <v>7</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -9814,30 +9820,30 @@
         <v>7</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="1" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -9848,13 +9854,13 @@
         <v>7</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -9865,13 +9871,13 @@
         <v>7</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -9882,13 +9888,13 @@
         <v>7</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -9899,30 +9905,30 @@
         <v>7</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -9933,13 +9939,13 @@
         <v>7</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -9950,13 +9956,13 @@
         <v>7</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -9967,13 +9973,13 @@
         <v>7</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -9984,30 +9990,30 @@
         <v>7</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -10018,13 +10024,13 @@
         <v>7</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -10035,13 +10041,13 @@
         <v>7</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -10052,13 +10058,13 @@
         <v>7</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -10069,30 +10075,30 @@
         <v>7</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -10103,13 +10109,13 @@
         <v>7</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -10120,13 +10126,13 @@
         <v>7</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -10137,13 +10143,13 @@
         <v>7</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -10154,30 +10160,30 @@
         <v>7</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -10188,13 +10194,13 @@
         <v>7</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -10205,13 +10211,13 @@
         <v>7</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -10222,13 +10228,13 @@
         <v>7</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -10239,30 +10245,30 @@
         <v>7</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -10273,13 +10279,13 @@
         <v>7</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -10290,13 +10296,13 @@
         <v>7</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -10307,13 +10313,13 @@
         <v>7</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -10324,30 +10330,30 @@
         <v>7</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -10358,13 +10364,13 @@
         <v>7</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -10375,13 +10381,13 @@
         <v>7</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -10392,13 +10398,13 @@
         <v>7</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -10409,30 +10415,30 @@
         <v>7</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -10443,13 +10449,13 @@
         <v>7</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -10460,13 +10466,13 @@
         <v>7</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -10477,13 +10483,13 @@
         <v>7</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -10494,30 +10500,30 @@
         <v>7</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -10528,13 +10534,13 @@
         <v>7</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -10545,13 +10551,13 @@
         <v>7</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -10562,13 +10568,13 @@
         <v>7</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -10579,30 +10585,30 @@
         <v>7</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -10613,13 +10619,13 @@
         <v>7</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -10630,13 +10636,13 @@
         <v>7</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -10647,13 +10653,13 @@
         <v>7</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -10664,30 +10670,30 @@
         <v>7</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -10698,13 +10704,13 @@
         <v>7</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -10715,13 +10721,13 @@
         <v>7</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -10732,13 +10738,13 @@
         <v>7</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -10749,30 +10755,30 @@
         <v>7</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -10783,13 +10789,13 @@
         <v>7</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -10800,13 +10806,13 @@
         <v>7</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -10817,13 +10823,13 @@
         <v>7</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -10834,30 +10840,30 @@
         <v>7</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -10868,13 +10874,13 @@
         <v>7</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -10885,13 +10891,13 @@
         <v>7</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D558" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -10902,13 +10908,13 @@
         <v>7</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -10919,30 +10925,30 @@
         <v>7</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D560" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -10953,13 +10959,13 @@
         <v>7</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D562" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -10970,13 +10976,13 @@
         <v>7</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -10987,13 +10993,13 @@
         <v>7</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -11004,30 +11010,30 @@
         <v>7</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -11038,13 +11044,13 @@
         <v>7</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -11055,13 +11061,13 @@
         <v>7</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -11072,13 +11078,13 @@
         <v>7</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -11089,30 +11095,30 @@
         <v>7</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -11123,13 +11129,13 @@
         <v>7</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -11140,13 +11146,13 @@
         <v>7</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -11157,13 +11163,13 @@
         <v>7</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -11174,30 +11180,30 @@
         <v>7</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -11208,13 +11214,13 @@
         <v>7</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -11225,13 +11231,13 @@
         <v>7</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -11242,13 +11248,13 @@
         <v>7</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -11259,24 +11265,41 @@
         <v>7</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E580" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E581" s="1" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E581" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A3:E580">
-      <sortCondition ref="A2:A581"/>
+  <autoFilter ref="A2:E582" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A3:E581">
+      <sortCondition ref="A2:A582"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A3:E580">
-    <sortCondition ref="A3:A580"/>
-    <sortCondition ref="B3:B580"/>
+  <sortState ref="A3:E581">
+    <sortCondition ref="A3:A581"/>
+    <sortCondition ref="B3:B581"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
